--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.022020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.022020.xlsx_with_dialog_acts.xlsx
@@ -899,12 +899,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1961,12 +1961,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2297,12 +2297,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3573,12 +3573,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3615,12 +3615,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3741,12 +3741,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3951,12 +3951,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3993,12 +3993,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4715,12 +4715,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4799,12 +4799,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5513,12 +5513,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5681,12 +5681,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6437,12 +6437,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7201,12 +7201,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7247,12 +7247,12 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7289,12 +7289,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7839,12 +7839,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8011,12 +8011,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8053,12 +8053,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8313,12 +8313,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8485,12 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9807,12 +9807,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9849,12 +9849,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12515,12 +12515,12 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12557,12 +12557,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13111,12 +13111,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13283,12 +13283,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13371,12 +13371,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13707,12 +13707,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14299,12 +14299,12 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16315,12 +16315,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16949,12 +16949,12 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17243,12 +17243,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17705,12 +17705,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17961,12 +17961,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18297,12 +18297,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18591,12 +18591,12 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18717,12 +18717,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19221,12 +19221,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19695,12 +19695,12 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20379,12 +20379,12 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20505,12 +20505,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20883,12 +20883,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21143,12 +21143,12 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21819,12 +21819,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22033,12 +22033,12 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22121,12 +22121,12 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22671,12 +22671,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22843,12 +22843,12 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23737,12 +23737,12 @@
       <c r="H550" t="inlineStr"/>
       <c r="I550" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24241,12 +24241,12 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24367,12 +24367,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24493,12 +24493,12 @@
       <c r="H568" t="inlineStr"/>
       <c r="I568" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24619,12 +24619,12 @@
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25505,12 +25505,12 @@
       <c r="H592" t="inlineStr"/>
       <c r="I592" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25887,12 +25887,12 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27203,12 +27203,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
